--- a/Organisatorisches/FuckUps_GoodThings/Good Things.xlsx
+++ b/Organisatorisches/FuckUps_GoodThings/Good Things.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -31,6 +31,15 @@
   </si>
   <si>
     <t>hat am Wochenende viel gemacht</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>5h --&gt; Bilder anzeigen</t>
   </si>
 </sst>
 </file>
@@ -54,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -91,15 +100,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -380,78 +416,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="1" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6">
+        <v>43072</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43080</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Organisatorisches/FuckUps_GoodThings/Good Things.xlsx
+++ b/Organisatorisches/FuckUps_GoodThings/Good Things.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>5h --&gt; Bilder anzeigen</t>
+  </si>
+  <si>
+    <t>3h -&gt; Waren anzeigen</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>3h -&gt; Präsentation</t>
   </si>
 </sst>
 </file>
@@ -419,7 +428,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,12 +471,26 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>42767</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>42770</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
